--- a/stimuli/output_videos/12/order_matrix_12_B_block2_VR.xlsx
+++ b/stimuli/output_videos/12/order_matrix_12_B_block2_VR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,11 +517,11 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_8_text.mp4</t>
+          <t>./instructions_videos/block_5_text.mp4</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -556,26 +556,26 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>arousal</t>
+          <t>valence</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>direct</t>
+          <t>inverse</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/12.mp4</t>
+          <t>../stimuli/exp_videos/VR/4.mp4</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
@@ -611,11 +611,11 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
+          <t>./instructions_videos/post_stimulus_self_report.mp4</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
@@ -625,7 +625,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>instruction_post_stimulus_verbal_report</t>
+          <t>post_stimulus_self_report</t>
         </is>
       </c>
     </row>
@@ -651,11 +651,11 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>./videos_fixation/countdown_bar.mp4</t>
+          <t>./instructions_videos/mareo.mp4</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
@@ -665,7 +665,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>verbal_report</t>
+          <t>motion_sickness</t>
         </is>
       </c>
     </row>
@@ -691,11 +691,11 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>./instructions_videos/confidence_verbal_report_text.mp4</t>
+          <t>./instructions_videos/block_5_text_reminder.mp4</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
         <v>2</v>
@@ -705,7 +705,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>confidence_verbal_report</t>
+          <t>audio_instruction</t>
         </is>
       </c>
     </row>
@@ -725,17 +725,31 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>valence</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">inverse </t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>./black_screen_5_sec.mp4</t>
+          <t>../stimuli/exp_videos/VR/8.mp4</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
@@ -745,7 +759,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>black_screen_5_seconds</t>
+          <t>video</t>
         </is>
       </c>
     </row>
@@ -771,11 +785,11 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_8_text_reminder.mp4</t>
+          <t>./instructions_videos/post_stimulus_self_report.mp4</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
@@ -785,7 +799,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>audio_instruction</t>
+          <t>post_stimulus_self_report</t>
         </is>
       </c>
     </row>
@@ -805,31 +819,17 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>arousal</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/2.mp4</t>
+          <t>./instructions_videos/mareo.mp4</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>2</v>
@@ -839,7 +839,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>motion_sickness</t>
         </is>
       </c>
     </row>
@@ -865,11 +865,11 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
+          <t>./instructions_videos/block_5_text_reminder.mp4</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
         <v>2</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>instruction_post_stimulus_verbal_report</t>
+          <t>audio_instruction</t>
         </is>
       </c>
     </row>
@@ -899,17 +899,31 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>valence</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>inverse</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>./videos_fixation/countdown_bar.mp4</t>
+          <t>../stimuli/exp_videos/VR/7.mp4</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
@@ -919,7 +933,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>verbal_report</t>
+          <t>video</t>
         </is>
       </c>
     </row>
@@ -945,11 +959,11 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>./instructions_videos/confidence_verbal_report_text.mp4</t>
+          <t>./instructions_videos/post_stimulus_self_report.mp4</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
@@ -959,7 +973,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>confidence_verbal_report</t>
+          <t>post_stimulus_self_report</t>
         </is>
       </c>
     </row>
@@ -985,11 +999,11 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>./black_screen_5_sec.mp4</t>
+          <t>./instructions_videos/mareo.mp4</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
         <v>2</v>
@@ -999,7 +1013,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>black_screen_5_seconds</t>
+          <t>motion_sickness</t>
         </is>
       </c>
     </row>
@@ -1025,11 +1039,11 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_8_text_reminder.mp4</t>
+          <t>./instructions_videos/block_5_text_reminder.mp4</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
         <v>2</v>
@@ -1060,30 +1074,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>arousal</t>
+          <t>valence</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>direct</t>
+          <t>inverse</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/3.mp4</t>
+          <t>../stimuli/exp_videos/VR/9.mp4</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
@@ -1119,11 +1133,11 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
+          <t>./instructions_videos/post_stimulus_self_report.mp4</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
         <v>2</v>
@@ -1133,7 +1147,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>instruction_post_stimulus_verbal_report</t>
+          <t>post_stimulus_self_report</t>
         </is>
       </c>
     </row>
@@ -1159,11 +1173,11 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>./videos_fixation/countdown_bar.mp4</t>
+          <t>./instructions_videos/mareo.mp4</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
         <v>2</v>
@@ -1173,7 +1187,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>verbal_report</t>
+          <t>motion_sickness</t>
         </is>
       </c>
     </row>
@@ -1199,12 +1213,10 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>./instructions_videos/confidence_verbal_report_text.mp4</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>8</v>
-      </c>
+          <t>./instructions_videos/luminance_instructions_inverse.mp4</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>2</v>
       </c>
@@ -1213,7 +1225,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>confidence_verbal_report</t>
+          <t>luminance_instructions</t>
         </is>
       </c>
     </row>
@@ -1233,18 +1245,26 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>luminance</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>inverse</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>./black_screen_5_sec.mp4</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>8</v>
-      </c>
+          <t>../stimuli/exp_videos/VR/green_intensity_video_3.mp4</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>2</v>
       </c>
@@ -1253,7 +1273,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>black_screen_5_seconds</t>
+          <t>luminance</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1299,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>./instructions_videos/luminance_instructions_direct.mp4</t>
+          <t>./instructions_videos/confidence_luminance_practice_instructions_text.mp4</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1291,7 +1311,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>luminance_instructions</t>
+          <t>confidence_luminance_instructions</t>
         </is>
       </c>
     </row>
@@ -1311,35 +1331,27 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>4</v>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>luminance</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/green_intensity_video_12.mp4</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>./instructions_videos/block_6_text.mp4</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>6</v>
+      </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>luminance</t>
+          <t>audio_instruction</t>
         </is>
       </c>
     </row>
@@ -1359,17 +1371,31 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>6</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>valence</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_5_text.mp4</t>
+          <t>../stimuli/exp_videos/VR/1.mp4</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
         <v>3</v>
@@ -1379,7 +1405,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>audio_instruction</t>
+          <t>video</t>
         </is>
       </c>
     </row>
@@ -1399,31 +1425,17 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>5</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>valence</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">inverse </t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/8.mp4</t>
+          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
         <v>3</v>
@@ -1433,7 +1445,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>instruction_post_stimulus_verbal_report</t>
         </is>
       </c>
     </row>
@@ -1459,11 +1471,11 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_self_report.mp4</t>
+          <t>./videos_fixation/countdown_bar.mp4</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
         <v>3</v>
@@ -1473,7 +1485,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>post_stimulus_self_report</t>
+          <t>verbal_report</t>
         </is>
       </c>
     </row>
@@ -1499,11 +1511,11 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>./black_screen_5_sec.mp4</t>
+          <t>./instructions_videos/confidence_verbal_report_text.mp4</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
@@ -1513,7 +1525,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>black_screen_5_seconds</t>
+          <t>confidence_verbal_report</t>
         </is>
       </c>
     </row>
@@ -1539,11 +1551,11 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_5_text_reminder.mp4</t>
+          <t>./instructions_videos/mareo.mp4</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
         <v>3</v>
@@ -1553,7 +1565,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>audio_instruction</t>
+          <t>motion_sickness</t>
         </is>
       </c>
     </row>
@@ -1573,32 +1585,18 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>./instructions_videos/block_6_text_reminder.mp4</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>6</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>valence</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>inverse</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>../stimuli/exp_videos/VR/4.mp4</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>5</v>
-      </c>
       <c r="J27" t="n">
         <v>3</v>
       </c>
@@ -1607,7 +1605,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>audio_instruction</t>
         </is>
       </c>
     </row>
@@ -1627,17 +1625,31 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>7</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>valence</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_self_report.mp4</t>
+          <t>../stimuli/exp_videos/VR/10.mp4</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
         <v>3</v>
@@ -1647,7 +1659,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>post_stimulus_self_report</t>
+          <t>video</t>
         </is>
       </c>
     </row>
@@ -1673,11 +1685,11 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>./black_screen_5_sec.mp4</t>
+          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
@@ -1687,7 +1699,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>black_screen_5_seconds</t>
+          <t>instruction_post_stimulus_verbal_report</t>
         </is>
       </c>
     </row>
@@ -1713,11 +1725,11 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_5_text_reminder.mp4</t>
+          <t>./videos_fixation/countdown_bar.mp4</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
         <v>3</v>
@@ -1727,7 +1739,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>audio_instruction</t>
+          <t>verbal_report</t>
         </is>
       </c>
     </row>
@@ -1747,31 +1759,17 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>7</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>valence</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>inverse</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/9.mp4</t>
+          <t>./instructions_videos/confidence_verbal_report_text.mp4</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
         <v>3</v>
@@ -1781,7 +1779,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>confidence_verbal_report</t>
         </is>
       </c>
     </row>
@@ -1807,11 +1805,11 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_self_report.mp4</t>
+          <t>./instructions_videos/mareo.mp4</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J32" t="n">
         <v>3</v>
@@ -1821,7 +1819,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>post_stimulus_self_report</t>
+          <t>motion_sickness</t>
         </is>
       </c>
     </row>
@@ -1847,11 +1845,11 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>./black_screen_5_sec.mp4</t>
+          <t>./instructions_videos/block_6_text_reminder.mp4</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
         <v>3</v>
@@ -1861,7 +1859,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>black_screen_5_seconds</t>
+          <t>audio_instruction</t>
         </is>
       </c>
     </row>
@@ -1881,17 +1879,31 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>8</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>valence</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>./instructions_videos/block_5_text_reminder.mp4</t>
+          <t>../stimuli/exp_videos/VR/5.mp4</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
         <v>3</v>
@@ -1901,7 +1913,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>audio_instruction</t>
+          <t>video</t>
         </is>
       </c>
     </row>
@@ -1921,31 +1933,17 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>8</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>valence</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>inverse</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/7.mp4</t>
+          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J35" t="n">
         <v>3</v>
@@ -1955,7 +1953,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>instruction_post_stimulus_verbal_report</t>
         </is>
       </c>
     </row>
@@ -1981,11 +1979,11 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>./instructions_videos/post_stimulus_self_report.mp4</t>
+          <t>./videos_fixation/countdown_bar.mp4</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J36" t="n">
         <v>3</v>
@@ -1995,7 +1993,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>post_stimulus_self_report</t>
+          <t>verbal_report</t>
         </is>
       </c>
     </row>
@@ -2021,11 +2019,11 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>./black_screen_5_sec.mp4</t>
+          <t>./instructions_videos/confidence_verbal_report_text.mp4</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J37" t="n">
         <v>3</v>
@@ -2035,7 +2033,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>black_screen_5_seconds</t>
+          <t>confidence_verbal_report</t>
         </is>
       </c>
     </row>
@@ -2061,10 +2059,12 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>./instructions_videos/luminance_instructions_direct.mp4</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>./instructions_videos/mareo.mp4</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>6</v>
+      </c>
       <c r="J38" t="n">
         <v>3</v>
       </c>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>luminance_instructions</t>
+          <t>motion_sickness</t>
         </is>
       </c>
     </row>
@@ -2093,26 +2093,18 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>9</v>
-      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>luminance</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">inverse </t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>../stimuli/exp_videos/VR/green_intensity_video_3.mp4</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>./instructions_videos/block_6_text_reminder.mp4</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>6</v>
+      </c>
       <c r="J39" t="n">
         <v>3</v>
       </c>
@@ -2121,7 +2113,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>luminance</t>
+          <t>audio_instruction</t>
         </is>
       </c>
     </row>
@@ -2141,25 +2133,41 @@
           <t>VR</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>9</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>valence</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>./instructions_videos/final_relaxation_video_text.mp4</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t>../stimuli/exp_videos/VR/11.mp4</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>6</v>
+      </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
         <v>2</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>final_relaxation</t>
+          <t>video</t>
         </is>
       </c>
     </row>
@@ -2185,19 +2193,21 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>./calm_videos/VR/902.mp4</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>./instructions_videos/post_stimulus_verbal_report.mp4</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>6</v>
+      </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
         <v>2</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>calm_902</t>
+          <t>instruction_post_stimulus_verbal_report</t>
         </is>
       </c>
     </row>
@@ -2223,17 +2233,337 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
+          <t>./videos_fixation/countdown_bar.mp4</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>6</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>verbal_report</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>B_block2</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>VR</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>./instructions_videos/confidence_verbal_report_text.mp4</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>6</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>confidence_verbal_report</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>B_block2</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>VR</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>./instructions_videos/mareo.mp4</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>6</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>motion_sickness</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>B_block2</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>VR</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>./instructions_videos/luminance_instructions_direct.mp4</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>3</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>luminance_instructions</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B_block2</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>VR</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>luminance</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>../stimuli/exp_videos/VR/green_intensity_video_7.mp4</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>3</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>luminance</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>B_block2</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>VR</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>./instructions_videos/confidence_luminance_practice_instructions_text.mp4</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>3</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>confidence_luminance_instructions</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>B_block2</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>VR</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>./instructions_videos/final_relaxation_video_text.mp4</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>final_relaxation</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>B_block2</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>VR</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>./calm_videos/VR/902.mp4</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>4</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>calm_902</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>B_block2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>VR</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
           <t>./instructions_videos/experiment_end_text.mp4</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
         <v>4</v>
       </c>
-      <c r="K42" t="n">
-        <v>2</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>experiment_end_task</t>
         </is>
